--- a/QDLogistics/FileUploads/sample/Box_PackingList.xlsx
+++ b/QDLogistics/FileUploads/sample/Box_PackingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QD Project\Order Shipping System\QDLogistics\FileUploads\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A372A90F-138B-4B8B-82E3-44B64F5094B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D3D3FA-9AB3-4294-9C82-77EC2C23BED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24855" yWindow="2085" windowWidth="21600" windowHeight="11835" xr2:uid="{D8CE6383-1B61-475C-8A3B-BF5F7AA15A73}"/>
+    <workbookView xWindow="-24165" yWindow="2775" windowWidth="21600" windowHeight="11835" xr2:uid="{D8CE6383-1B61-475C-8A3B-BF5F7AA15A73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,6 +217,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3333750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81012</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1885E2-051B-4950-8A29-6183D1AEDFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="304799"/>
+          <a:ext cx="1624062" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,7 +574,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -644,5 +699,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>